--- a/Tabelas/Teste.xlsx
+++ b/Tabelas/Teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Python/Tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{30D70C24-D1D4-402E-96BE-7613F5E276F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{04B82A04-3D21-4FA0-A470-EE496BB28AA8}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{04B82A04-3D21-4FA0-A470-EE496BB28AA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FEEBE8-F218-4AE8-BA9F-517293223B99}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007BA52E-410E-4183-9CAE-94E0FA742A61}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
